--- a/Data/g1.3.xlsx
+++ b/Data/g1.3.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Wagner Nobrega\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{4AC7A96D-1F6F-4A76-8CE1-9EAF633AFFB2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0D25094-798D-4549-942C-8A4587A2C3CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{16C33C88-53CB-4AE8-B7A7-A901DF078F13}"/>
   </bookViews>
   <sheets>
-    <sheet name="g1.3" sheetId="1" r:id="rId1"/>
+    <sheet name="g1.3" sheetId="2" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="18">
   <si>
     <t>UF</t>
   </si>
@@ -54,18 +54,9 @@
     <t>SP</t>
   </si>
   <si>
-    <t>TO</t>
-  </si>
-  <si>
     <t>RJ</t>
   </si>
   <si>
-    <t>MS</t>
-  </si>
-  <si>
-    <t>RG</t>
-  </si>
-  <si>
     <t>AL</t>
   </si>
   <si>
@@ -76,16 +67,24 @@
   </si>
   <si>
     <t>BR</t>
+  </si>
+  <si>
+    <t>Rank</t>
+  </si>
+  <si>
+    <t>RO</t>
+  </si>
+  <si>
+    <t>BA</t>
+  </si>
+  <si>
+    <t>MG</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="2">
-    <numFmt numFmtId="164" formatCode="#,##0.0"/>
-    <numFmt numFmtId="165" formatCode="0.0"/>
-  </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -115,19 +114,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -442,22 +435,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E73AEB1C-3F68-4465-B312-04A7A6986A9C}">
-  <dimension ref="A1:E10"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4792F1EE-C40F-4604-90BB-B53AC3E119FC}">
+  <dimension ref="A1:F10"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:D10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D3" sqref="D3:F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="21.7109375" customWidth="1"/>
-    <col min="3" max="3" width="12.85546875" customWidth="1"/>
-    <col min="4" max="4" width="20.85546875" customWidth="1"/>
-    <col min="5" max="5" width="21.7109375" customWidth="1"/>
+    <col min="5" max="5" width="21.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -465,147 +455,189 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="1"/>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
+      <c r="F1" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
         <v>3</v>
       </c>
       <c r="B2" s="2">
-        <v>92732.27</v>
-      </c>
-      <c r="C2" s="1" t="s">
+        <v>92811.994961489749</v>
+      </c>
+      <c r="C2" s="2">
+        <v>1</v>
+      </c>
+      <c r="D2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="3">
-        <v>250.56772236310155</v>
-      </c>
-      <c r="E2" s="4"/>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
+      <c r="E2" s="2">
+        <v>152.57809177131941</v>
+      </c>
+      <c r="F2" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
         <v>4</v>
       </c>
       <c r="B3" s="2">
-        <v>65426.1</v>
-      </c>
-      <c r="C3" s="1" t="s">
+        <v>65426.098383283279</v>
+      </c>
+      <c r="C3" s="2">
+        <v>2</v>
+      </c>
+      <c r="D3" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="D3" s="3">
-        <v>175.43619196313878</v>
-      </c>
-      <c r="E3" s="4"/>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
+      <c r="E3" s="2">
+        <v>138.38439813093899</v>
+      </c>
+      <c r="F3" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B4" s="2">
+        <v>64758.135082058281</v>
+      </c>
+      <c r="C4" s="2">
+        <v>3</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E4" s="2">
+        <v>128.72117985347623</v>
+      </c>
+      <c r="F4" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="2">
-        <v>58400.55</v>
-      </c>
-      <c r="C4" s="1" t="s">
+      <c r="B5" s="2">
+        <v>58400.554004723308</v>
+      </c>
+      <c r="C5" s="2">
+        <v>4</v>
+      </c>
+      <c r="D5" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D4" s="3">
-        <v>172.636276932388</v>
-      </c>
-      <c r="E4" s="4"/>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
+      <c r="E5" s="2">
+        <v>123.4753423442732</v>
+      </c>
+      <c r="F5" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="2">
-        <v>58302.29</v>
-      </c>
-      <c r="C5" s="1" t="s">
+      <c r="B6" s="2">
+        <v>58302.290198624069</v>
+      </c>
+      <c r="C6" s="2">
+        <v>5</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E6" s="2">
+        <v>117.39091124520536</v>
+      </c>
+      <c r="F6" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="D5" s="3">
-        <v>171.67366349995342</v>
-      </c>
-      <c r="E5" s="4"/>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B6" s="2">
-        <v>54359.61</v>
-      </c>
-      <c r="C6" s="1" t="s">
+      <c r="B7" s="2">
+        <v>54359.60596067318</v>
+      </c>
+      <c r="C7" s="2">
+        <v>6</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E7" s="2">
+        <v>117.36742331488594</v>
+      </c>
+      <c r="F7" s="2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D6" s="3">
-        <v>159.52223669822143</v>
-      </c>
-      <c r="E6" s="4"/>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
+      <c r="B8" s="2">
+        <v>22175.423521786459</v>
+      </c>
+      <c r="C8" s="2">
+        <v>23</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E8" s="2">
+        <v>72.249344206093213</v>
+      </c>
+      <c r="F8" s="2">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B7" s="2">
-        <v>50693.51</v>
-      </c>
-      <c r="C7" s="1" t="s">
+      <c r="B9" s="2">
+        <v>21556.264926061369</v>
+      </c>
+      <c r="C9" s="2"/>
+      <c r="D9" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E9" s="2">
+        <v>103.77602330317819</v>
+      </c>
+      <c r="F9" s="2"/>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="D7" s="3">
-        <v>158.99682678248706</v>
-      </c>
-      <c r="E7" s="4"/>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B8" s="2">
-        <v>22177.45</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D8" s="3">
-        <v>73.693768455937871</v>
-      </c>
-      <c r="E8" s="4"/>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B9" s="2">
-        <v>21186.152222222223</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="D9" s="3">
-        <v>115.10854959235282</v>
-      </c>
-      <c r="E9" s="4"/>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" s="1" t="s">
-        <v>16</v>
-      </c>
       <c r="B10" s="2">
-        <v>42553.121515873019</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="D10" s="3">
-        <v>108.88410307217796</v>
-      </c>
-      <c r="E10" s="4"/>
+        <v>42247.523656494232</v>
+      </c>
+      <c r="C10" s="2"/>
+      <c r="D10" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E10" s="2">
+        <v>95.716182431422553</v>
+      </c>
+      <c r="F10" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>

--- a/Data/g1.3.xlsx
+++ b/Data/g1.3.xlsx
@@ -441,7 +441,7 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Variação (%) 2022</t>
+          <t>PIB 2022 Deflacionado</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">

--- a/Data/g1.3.xlsx
+++ b/Data/g1.3.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F10"/>
+  <dimension ref="A1:D19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -441,7 +441,7 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>PIB 2022 Deflacionado</t>
+          <t>Valor</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
@@ -451,17 +451,7 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>UF</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>Variação (%) 2022/2010</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>Rank</t>
+          <t>Categoria</t>
         </is>
       </c>
     </row>
@@ -479,14 +469,8 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>MT</t>
-        </is>
-      </c>
-      <c r="E2" t="n">
-        <v>1.480568130444567</v>
-      </c>
-      <c r="F2" t="n">
-        <v>1</v>
+          <t>PIB 2022 Deflacionado</t>
+        </is>
       </c>
     </row>
     <row r="3">
@@ -503,14 +487,8 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>PI</t>
-        </is>
-      </c>
-      <c r="E3" t="n">
-        <v>1.354725492322902</v>
-      </c>
-      <c r="F3" t="n">
-        <v>2</v>
+          <t>PIB 2022 Deflacionado</t>
+        </is>
       </c>
     </row>
     <row r="4">
@@ -527,14 +505,8 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>BA</t>
-        </is>
-      </c>
-      <c r="E4" t="n">
-        <v>1.34745626151513</v>
-      </c>
-      <c r="F4" t="n">
-        <v>3</v>
+          <t>PIB 2022 Deflacionado</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -551,14 +523,8 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>MS</t>
-        </is>
-      </c>
-      <c r="E5" t="n">
-        <v>1.329885262395931</v>
-      </c>
-      <c r="F5" t="n">
-        <v>4</v>
+          <t>PIB 2022 Deflacionado</t>
+        </is>
       </c>
     </row>
     <row r="6">
@@ -575,14 +541,8 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>PR</t>
-        </is>
-      </c>
-      <c r="E6" t="n">
-        <v>1.256546683333379</v>
-      </c>
-      <c r="F6" t="n">
-        <v>5</v>
+          <t>PIB 2022 Deflacionado</t>
+        </is>
       </c>
     </row>
     <row r="7">
@@ -599,14 +559,8 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>RJ</t>
-        </is>
-      </c>
-      <c r="E7" t="n">
-        <v>1.228221586781506</v>
-      </c>
-      <c r="F7" t="n">
-        <v>6</v>
+          <t>PIB 2022 Deflacionado</t>
+        </is>
       </c>
     </row>
     <row r="8">
@@ -623,14 +577,8 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>SE</t>
-        </is>
-      </c>
-      <c r="E8" t="n">
-        <v>0.8656526888418142</v>
-      </c>
-      <c r="F8" t="n">
-        <v>22</v>
+          <t>PIB 2022 Deflacionado</t>
+        </is>
       </c>
     </row>
     <row r="9">
@@ -645,13 +593,9 @@
       <c r="C9" t="inlineStr"/>
       <c r="D9" t="inlineStr">
         <is>
-          <t>BR</t>
-        </is>
-      </c>
-      <c r="E9" t="n">
-        <v>1.097514270052011</v>
-      </c>
-      <c r="F9" t="inlineStr"/>
+          <t>PIB 2022 Deflacionado</t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -665,13 +609,167 @@
       <c r="C10" t="inlineStr"/>
       <c r="D10" t="inlineStr">
         <is>
+          <t>PIB 2022 Deflacionado</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>MT</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>1.480568130444567</v>
+      </c>
+      <c r="C11" t="n">
+        <v>1</v>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>Variação (%) 2022/2010</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>PI</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>1.354725492322902</v>
+      </c>
+      <c r="C12" t="n">
+        <v>2</v>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>Variação (%) 2022/2010</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>BA</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>1.34745626151513</v>
+      </c>
+      <c r="C13" t="n">
+        <v>3</v>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>Variação (%) 2022/2010</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>MS</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>1.329885262395931</v>
+      </c>
+      <c r="C14" t="n">
+        <v>4</v>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>Variação (%) 2022/2010</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>PR</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>1.256546683333379</v>
+      </c>
+      <c r="C15" t="n">
+        <v>5</v>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>Variação (%) 2022/2010</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>RJ</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>1.228221586781506</v>
+      </c>
+      <c r="C16" t="n">
+        <v>6</v>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>Variação (%) 2022/2010</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>SE</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>0.8656526888418142</v>
+      </c>
+      <c r="C17" t="n">
+        <v>22</v>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>Variação (%) 2022/2010</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>BR</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>1.097514270052011</v>
+      </c>
+      <c r="C18" t="inlineStr"/>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>Variação (%) 2022/2010</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
           <t>NE</t>
         </is>
       </c>
-      <c r="E10" t="n">
+      <c r="B19" t="n">
         <v>1.168334463344599</v>
       </c>
-      <c r="F10" t="inlineStr"/>
+      <c r="C19" t="inlineStr"/>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>Variação (%) 2022/2010</t>
+        </is>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Data/g1.3.xlsx
+++ b/Data/g1.3.xlsx
@@ -462,14 +462,14 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>106255.6657838777</v>
+        <v>118174.1116095417</v>
       </c>
       <c r="C2" t="n">
         <v>1</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>PIB 2022 Deflacionado</t>
+          <t>PIB 2023 Deflacionado</t>
         </is>
       </c>
     </row>
@@ -480,14 +480,14 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>71631.77332808671</v>
+        <v>76532.28963539573</v>
       </c>
       <c r="C3" t="n">
         <v>2</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>PIB 2022 Deflacionado</t>
+          <t>PIB 2023 Deflacionado</t>
         </is>
       </c>
     </row>
@@ -498,50 +498,50 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>67103.78239198164</v>
+        <v>73845.19036585005</v>
       </c>
       <c r="C4" t="n">
         <v>3</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>PIB 2022 Deflacionado</t>
+          <t>PIB 2023 Deflacionado</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>RJ</t>
+          <t>SC</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>66053.31857417851</v>
+        <v>69959.10090505773</v>
       </c>
       <c r="C5" t="n">
         <v>4</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>PIB 2022 Deflacionado</t>
+          <t>PIB 2023 Deflacionado</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>SC</t>
+          <t>RJ</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>63538.30060720995</v>
+        <v>67161.88535005336</v>
       </c>
       <c r="C6" t="n">
         <v>5</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>PIB 2022 Deflacionado</t>
+          <t>PIB 2023 Deflacionado</t>
         </is>
       </c>
     </row>
@@ -552,14 +552,14 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>58610.8875231719</v>
+        <v>64948.89321994126</v>
       </c>
       <c r="C7" t="n">
         <v>6</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>PIB 2022 Deflacionado</t>
+          <t>PIB 2023 Deflacionado</t>
         </is>
       </c>
     </row>
@@ -570,14 +570,14 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>24534.05142415514</v>
+        <v>26006.98661973922</v>
       </c>
       <c r="C8" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>PIB 2022 Deflacionado</t>
+          <t>PIB 2023 Deflacionado</t>
         </is>
       </c>
     </row>
@@ -588,12 +588,12 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>47251.95921644355</v>
+        <v>51300.70579350938</v>
       </c>
       <c r="C9" t="inlineStr"/>
       <c r="D9" t="inlineStr">
         <is>
-          <t>PIB 2022 Deflacionado</t>
+          <t>PIB 2023 Deflacionado</t>
         </is>
       </c>
     </row>
@@ -604,48 +604,48 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>24069.74856943695</v>
+        <v>26237.41536180414</v>
       </c>
       <c r="C10" t="inlineStr"/>
       <c r="D10" t="inlineStr">
         <is>
-          <t>PIB 2022 Deflacionado</t>
+          <t>PIB 2023 Deflacionado</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>MT</t>
+          <t>PI</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1.480568130444567</v>
+        <v>1.537570136346218</v>
       </c>
       <c r="C11" t="n">
         <v>1</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Variação (%) 2022/2010</t>
+          <t>Variação (%) 2023/2010</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>PI</t>
+          <t>AL</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>1.354725492322902</v>
+        <v>1.47614098883597</v>
       </c>
       <c r="C12" t="n">
         <v>2</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Variação (%) 2022/2010</t>
+          <t>Variação (%) 2023/2010</t>
         </is>
       </c>
     </row>
@@ -656,68 +656,68 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1.34745626151513</v>
+        <v>1.456636142415122</v>
       </c>
       <c r="C13" t="n">
         <v>3</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>Variação (%) 2022/2010</t>
+          <t>Variação (%) 2023/2010</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>MS</t>
+          <t>PR</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1.329885262395931</v>
+        <v>1.361548723808843</v>
       </c>
       <c r="C14" t="n">
         <v>4</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>Variação (%) 2022/2010</t>
+          <t>Variação (%) 2023/2010</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>PR</t>
+          <t>MT</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>1.256546683333379</v>
+        <v>1.347864888435147</v>
       </c>
       <c r="C15" t="n">
         <v>5</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>Variação (%) 2022/2010</t>
+          <t>Variação (%) 2023/2010</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>RJ</t>
+          <t>RS</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1.228221586781506</v>
+        <v>1.330588661237085</v>
       </c>
       <c r="C16" t="n">
         <v>6</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>Variação (%) 2022/2010</t>
+          <t>Variação (%) 2023/2010</t>
         </is>
       </c>
     </row>
@@ -728,14 +728,14 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.8656526888418142</v>
+        <v>0.91785810919599</v>
       </c>
       <c r="C17" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>Variação (%) 2022/2010</t>
+          <t>Variação (%) 2023/2010</t>
         </is>
       </c>
     </row>
@@ -746,12 +746,12 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>1.097514270052011</v>
+        <v>1.205735709293767</v>
       </c>
       <c r="C18" t="inlineStr"/>
       <c r="D18" t="inlineStr">
         <is>
-          <t>Variação (%) 2022/2010</t>
+          <t>Variação (%) 2023/2010</t>
         </is>
       </c>
     </row>
@@ -762,12 +762,12 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>1.168334463344599</v>
+        <v>1.297733510014661</v>
       </c>
       <c r="C19" t="inlineStr"/>
       <c r="D19" t="inlineStr">
         <is>
-          <t>Variação (%) 2022/2010</t>
+          <t>Variação (%) 2023/2010</t>
         </is>
       </c>
     </row>
